--- a/Industry/201612-201908/HKD/MILLION/Analysis_46_9 - Fur Clothing (SITC 84831)_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_46_9 - Fur Clothing (SITC 84831)_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="2304" yWindow="1644"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -11982,6 +11983,168 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="8"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="9"/>
+    <col bestFit="1" customWidth="1" max="5" min="4" width="8"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="9"/>
+    <col bestFit="1" customWidth="1" max="9" min="7" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="n">
+        <v>937.429</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1013.337</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.097</v>
+      </c>
+      <c r="E2" t="n">
+        <v>640.698</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1135.374</v>
+      </c>
+      <c r="G2" t="n">
+        <v>12.043</v>
+      </c>
+      <c r="H2" t="n">
+        <v>638.092</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.407</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" t="n">
+        <v>937.429</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1013.337</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.097</v>
+      </c>
+      <c r="E3" t="n">
+        <v>640.698</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1135.374</v>
+      </c>
+      <c r="G3" t="n">
+        <v>12.043</v>
+      </c>
+      <c r="H3" t="n">
+        <v>638.092</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.407</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+      <c r="K3" t="n">
+        <v>100</v>
+      </c>
+      <c r="L3" t="n">
+        <v>100</v>
+      </c>
+      <c r="M3" t="n">
+        <v>100</v>
+      </c>
+      <c r="N3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
     <col bestFit="1" customWidth="1" max="3" min="2" width="9"/>
     <col bestFit="1" customWidth="1" max="5" min="4" width="8"/>
     <col bestFit="1" customWidth="1" max="6" min="6" width="9"/>
